--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6EDF95-01D2-41C3-9C5A-A90A41E05109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD691DBF-4782-4E00-B301-563A86C6F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{434A3C5A-F25B-4D0E-811A-071EB5335F48}"/>
+    <workbookView xWindow="43560" yWindow="0" windowWidth="12645" windowHeight="13230" activeTab="1" xr2:uid="{434A3C5A-F25B-4D0E-811A-071EB5335F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="534">
   <si>
     <t>Identifier</t>
   </si>
@@ -1636,6 +1636,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W7</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1840,7 +1846,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2160,12 +2165,12 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -6001,20 +6006,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}">
-  <dimension ref="A1:J88"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" t="s">
         <v>295</v>
       </c>
@@ -6050,7 +6056,10 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="18">
+      <c r="D2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="17">
         <v>200000</v>
       </c>
       <c r="F2" t="s">
@@ -6066,7 +6075,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
         <v>297</v>
       </c>
@@ -6076,6 +6085,9 @@
       <c r="C3" t="s">
         <v>481</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>532</v>
+      </c>
       <c r="E3" s="11">
         <v>592000</v>
       </c>
@@ -6089,7 +6101,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" t="s">
         <v>299</v>
       </c>
@@ -6115,7 +6127,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
         <v>301</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>50412.010999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" t="s">
         <v>303</v>
       </c>
@@ -6170,7 +6182,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" t="s">
         <v>305</v>
       </c>
@@ -6184,23 +6196,26 @@
         <v>525</v>
       </c>
       <c r="E7">
+        <v>170.20000000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H7" t="s">
+        <v>518</v>
+      </c>
+      <c r="I7">
+        <v>370</v>
+      </c>
+      <c r="K7">
         <f>I7*0.05*5*1.84</f>
         <v>170.20000000000002</v>
       </c>
-      <c r="F7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I7">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -6214,7 +6229,6 @@
         <v>525</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E10" si="0">I8*0.05*5*1.84</f>
         <v>92</v>
       </c>
       <c r="F8" t="s">
@@ -6229,8 +6243,12 @@
       <c r="I8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <f t="shared" ref="K8:K10" si="0">I8*0.05*5*1.84</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -6244,23 +6262,26 @@
         <v>525</v>
       </c>
       <c r="E9">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H9" t="s">
+        <v>518</v>
+      </c>
+      <c r="I9">
+        <v>158</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>72.680000000000007</v>
       </c>
-      <c r="F9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G9" t="s">
-        <v>514</v>
-      </c>
-      <c r="H9" t="s">
-        <v>518</v>
-      </c>
-      <c r="I9">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" t="s">
         <v>311</v>
       </c>
@@ -6274,23 +6295,26 @@
         <v>525</v>
       </c>
       <c r="E10">
+        <v>55.2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" t="s">
+        <v>514</v>
+      </c>
+      <c r="H10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>55.2</v>
       </c>
-      <c r="F10" t="s">
-        <v>311</v>
-      </c>
-      <c r="G10" t="s">
-        <v>514</v>
-      </c>
-      <c r="H10" t="s">
-        <v>518</v>
-      </c>
-      <c r="I10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -6316,7 +6340,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" t="s">
         <v>315</v>
       </c>
@@ -6345,7 +6369,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" t="s">
         <v>317</v>
       </c>
@@ -6371,7 +6395,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -6397,7 +6421,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -6423,7 +6447,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.8" customHeight="1">
+    <row r="16" spans="1:11" ht="13.8" hidden="1" customHeight="1">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -6452,7 +6476,7 @@
         <v>84960.372700000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
         <v>325</v>
       </c>
@@ -6462,9 +6486,11 @@
       <c r="C17" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>479</v>
+      </c>
       <c r="E17" s="14">
-        <v>37659.260040000001</v>
+        <v>0</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>325</v>
@@ -6476,7 +6502,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -6502,7 +6528,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
         <v>329</v>
       </c>
@@ -6528,7 +6554,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="20" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A20" t="s">
         <v>331</v>
       </c>
@@ -6542,7 +6568,7 @@
         <v>525</v>
       </c>
       <c r="E20" s="11">
-        <v>50450.655700000003</v>
+        <v>48.300000000000004</v>
       </c>
       <c r="F20" t="s">
         <v>331</v>
@@ -6556,8 +6582,12 @@
       <c r="I20" s="7">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="K20">
+        <f t="shared" ref="K20:K26" si="1">I20*0.05*5*1.84</f>
+        <v>48.300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A21" t="s">
         <v>333</v>
       </c>
@@ -6571,7 +6601,6 @@
         <v>525</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E20:E26" si="1">I21*0.05*5*1.84</f>
         <v>151.80000000000001</v>
       </c>
       <c r="F21" t="s">
@@ -6586,8 +6615,12 @@
       <c r="I21" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -6601,23 +6634,26 @@
         <v>525</v>
       </c>
       <c r="E22">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" t="s">
+        <v>514</v>
+      </c>
+      <c r="H22" t="s">
+        <v>518</v>
+      </c>
+      <c r="I22" s="3">
+        <v>330</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>151.80000000000001</v>
       </c>
-      <c r="F22" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" t="s">
-        <v>514</v>
-      </c>
-      <c r="H22" t="s">
-        <v>518</v>
-      </c>
-      <c r="I22" s="3">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="23" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -6631,23 +6667,26 @@
         <v>525</v>
       </c>
       <c r="E23">
+        <v>107.64000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
+        <v>514</v>
+      </c>
+      <c r="H23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I23" s="4">
+        <v>234</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>107.64000000000001</v>
       </c>
-      <c r="F23" t="s">
-        <v>337</v>
-      </c>
-      <c r="G23" t="s">
-        <v>514</v>
-      </c>
-      <c r="H23" t="s">
-        <v>518</v>
-      </c>
-      <c r="I23" s="4">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="24" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -6661,23 +6700,26 @@
         <v>525</v>
       </c>
       <c r="E24">
+        <v>107.64000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>339</v>
+      </c>
+      <c r="G24" t="s">
+        <v>514</v>
+      </c>
+      <c r="H24" t="s">
+        <v>518</v>
+      </c>
+      <c r="I24" s="3">
+        <v>234</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>107.64000000000001</v>
       </c>
-      <c r="F24" t="s">
-        <v>339</v>
-      </c>
-      <c r="G24" t="s">
-        <v>514</v>
-      </c>
-      <c r="H24" t="s">
-        <v>518</v>
-      </c>
-      <c r="I24" s="3">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="25" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A25" t="s">
         <v>341</v>
       </c>
@@ -6691,23 +6733,26 @@
         <v>525</v>
       </c>
       <c r="E25">
+        <v>460</v>
+      </c>
+      <c r="F25" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="F25" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H25" t="s">
-        <v>518</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="26" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A26" t="s">
         <v>343</v>
       </c>
@@ -6721,23 +6766,26 @@
         <v>525</v>
       </c>
       <c r="E26">
+        <v>60.720000000000006</v>
+      </c>
+      <c r="F26" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" t="s">
+        <v>514</v>
+      </c>
+      <c r="H26" t="s">
+        <v>518</v>
+      </c>
+      <c r="I26" s="8">
+        <v>132</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>60.720000000000006</v>
       </c>
-      <c r="F26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G26" t="s">
-        <v>514</v>
-      </c>
-      <c r="H26" t="s">
-        <v>518</v>
-      </c>
-      <c r="I26" s="8">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="13" t="s">
         <v>345</v>
       </c>
@@ -6747,8 +6795,12 @@
       <c r="C27" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>345</v>
       </c>
@@ -6759,7 +6811,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -6773,7 +6825,6 @@
         <v>525</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E29" si="2">I28*0.05*5*1.84</f>
         <v>69.92</v>
       </c>
       <c r="F28" t="s">
@@ -6788,8 +6839,12 @@
       <c r="I28" s="9">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
+      <c r="K28">
+        <f t="shared" ref="K28:K29" si="2">I28*0.05*5*1.84</f>
+        <v>69.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A29" t="s">
         <v>349</v>
       </c>
@@ -6803,23 +6858,26 @@
         <v>525</v>
       </c>
       <c r="E29">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" t="s">
+        <v>518</v>
+      </c>
+      <c r="I29" s="8">
+        <v>200</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="F29" t="s">
-        <v>349</v>
-      </c>
-      <c r="G29" t="s">
-        <v>514</v>
-      </c>
-      <c r="H29" t="s">
-        <v>518</v>
-      </c>
-      <c r="I29" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" t="s">
         <v>351</v>
       </c>
@@ -6832,7 +6890,7 @@
       <c r="D30" t="s">
         <v>528</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>11199.13654</v>
       </c>
       <c r="F30" t="s">
@@ -6845,7 +6903,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" t="s">
         <v>353</v>
       </c>
@@ -6871,7 +6929,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -6897,7 +6955,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" t="s">
         <v>357</v>
       </c>
@@ -6910,7 +6968,7 @@
       <c r="D33" t="s">
         <v>528</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>11199.13654</v>
       </c>
       <c r="F33" t="s">
@@ -6923,7 +6981,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" s="13" t="s">
         <v>359</v>
       </c>
@@ -6933,8 +6991,12 @@
       <c r="C34" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
       <c r="F34" s="13" t="s">
         <v>359</v>
       </c>
@@ -6945,7 +7007,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" t="s">
         <v>361</v>
       </c>
@@ -6971,7 +7033,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -7000,7 +7062,7 @@
         <v>37659.260040000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" t="s">
         <v>365</v>
       </c>
@@ -7014,23 +7076,26 @@
         <v>525</v>
       </c>
       <c r="E37">
+        <v>57.960000000000008</v>
+      </c>
+      <c r="F37" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" t="s">
+        <v>514</v>
+      </c>
+      <c r="H37" t="s">
+        <v>518</v>
+      </c>
+      <c r="I37">
+        <v>126</v>
+      </c>
+      <c r="K37">
         <f>I37*0.05*5*1.84</f>
         <v>57.960000000000008</v>
       </c>
-      <c r="F37" t="s">
-        <v>365</v>
-      </c>
-      <c r="G37" t="s">
-        <v>514</v>
-      </c>
-      <c r="H37" t="s">
-        <v>518</v>
-      </c>
-      <c r="I37">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" t="s">
         <v>367</v>
       </c>
@@ -7056,7 +7121,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" t="s">
         <v>369</v>
       </c>
@@ -7082,7 +7147,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" t="s">
         <v>371</v>
       </c>
@@ -7096,7 +7161,6 @@
         <v>525</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E41" si="3">I40*0.05*5*1.84</f>
         <v>47.84</v>
       </c>
       <c r="F40" t="s">
@@ -7111,8 +7175,12 @@
       <c r="I40">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40">
+        <f t="shared" ref="K40:K41" si="3">I40*0.05*5*1.84</f>
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" t="s">
         <v>373</v>
       </c>
@@ -7126,23 +7194,26 @@
         <v>525</v>
       </c>
       <c r="E41">
+        <v>58.88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>373</v>
+      </c>
+      <c r="G41" t="s">
+        <v>514</v>
+      </c>
+      <c r="H41" t="s">
+        <v>518</v>
+      </c>
+      <c r="I41">
+        <v>128</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="3"/>
         <v>58.88</v>
       </c>
-      <c r="F41" t="s">
-        <v>373</v>
-      </c>
-      <c r="G41" t="s">
-        <v>514</v>
-      </c>
-      <c r="H41" t="s">
-        <v>518</v>
-      </c>
-      <c r="I41">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" t="s">
         <v>375</v>
       </c>
@@ -7168,7 +7239,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1">
+    <row r="43" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A43" t="s">
         <v>377</v>
       </c>
@@ -7182,23 +7253,26 @@
         <v>525</v>
       </c>
       <c r="E43">
+        <v>115.46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>514</v>
+      </c>
+      <c r="H43" t="s">
+        <v>518</v>
+      </c>
+      <c r="I43" s="1">
+        <v>251</v>
+      </c>
+      <c r="K43">
         <f>I43*0.05*5*1.84</f>
         <v>115.46000000000001</v>
       </c>
-      <c r="F43" t="s">
-        <v>377</v>
-      </c>
-      <c r="G43" t="s">
-        <v>514</v>
-      </c>
-      <c r="H43" t="s">
-        <v>518</v>
-      </c>
-      <c r="I43" s="1">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -7224,7 +7298,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1">
+    <row r="45" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -7238,7 +7312,6 @@
         <v>525</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:E47" si="4">I45*0.05*5*1.84</f>
         <v>77.28</v>
       </c>
       <c r="F45" t="s">
@@ -7253,8 +7326,12 @@
       <c r="I45" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1">
+      <c r="K45">
+        <f t="shared" ref="K45:K47" si="4">I45*0.05*5*1.84</f>
+        <v>77.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A46" t="s">
         <v>383</v>
       </c>
@@ -7268,23 +7345,26 @@
         <v>525</v>
       </c>
       <c r="E46">
+        <v>62.1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>514</v>
+      </c>
+      <c r="H46" t="s">
+        <v>518</v>
+      </c>
+      <c r="I46" s="1">
+        <v>135</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="4"/>
         <v>62.1</v>
       </c>
-      <c r="F46" t="s">
-        <v>383</v>
-      </c>
-      <c r="G46" t="s">
-        <v>514</v>
-      </c>
-      <c r="H46" t="s">
-        <v>518</v>
-      </c>
-      <c r="I46" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="47" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -7298,23 +7378,26 @@
         <v>525</v>
       </c>
       <c r="E47">
+        <v>62.1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>514</v>
+      </c>
+      <c r="H47" t="s">
+        <v>518</v>
+      </c>
+      <c r="I47" s="1">
+        <v>135</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="4"/>
         <v>62.1</v>
       </c>
-      <c r="F47" t="s">
-        <v>385</v>
-      </c>
-      <c r="G47" t="s">
-        <v>514</v>
-      </c>
-      <c r="H47" t="s">
-        <v>518</v>
-      </c>
-      <c r="I47" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="13" t="s">
         <v>387</v>
       </c>
@@ -7324,8 +7407,12 @@
       <c r="C48" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0</v>
+      </c>
       <c r="F48" s="13" t="s">
         <v>387</v>
       </c>
@@ -7336,7 +7423,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="13" t="s">
         <v>389</v>
       </c>
@@ -7346,8 +7433,12 @@
       <c r="C49" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
       <c r="F49" s="13" t="s">
         <v>389</v>
       </c>
@@ -7358,7 +7449,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -7384,7 +7475,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1">
+    <row r="51" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -7398,7 +7489,6 @@
         <v>525</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E54" si="5">I51*0.05*5*1.84</f>
         <v>151.34</v>
       </c>
       <c r="F51" t="s">
@@ -7413,8 +7503,12 @@
       <c r="I51" s="2">
         <v>329</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1">
+      <c r="K51">
+        <f t="shared" ref="K51:K54" si="5">I51*0.05*5*1.84</f>
+        <v>151.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A52" t="s">
         <v>395</v>
       </c>
@@ -7428,23 +7522,26 @@
         <v>525</v>
       </c>
       <c r="E52">
+        <v>90.62</v>
+      </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" t="s">
+        <v>514</v>
+      </c>
+      <c r="H52" t="s">
+        <v>518</v>
+      </c>
+      <c r="I52" s="3">
+        <v>197</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="5"/>
         <v>90.620000000000019</v>
       </c>
-      <c r="F52" t="s">
-        <v>395</v>
-      </c>
-      <c r="G52" t="s">
-        <v>514</v>
-      </c>
-      <c r="H52" t="s">
-        <v>518</v>
-      </c>
-      <c r="I52" s="3">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="53" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -7458,23 +7555,26 @@
         <v>525</v>
       </c>
       <c r="E53">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F53" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" t="s">
+        <v>514</v>
+      </c>
+      <c r="H53" t="s">
+        <v>518</v>
+      </c>
+      <c r="I53" s="4">
+        <v>140</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="5"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="F53" t="s">
-        <v>397</v>
-      </c>
-      <c r="G53" t="s">
-        <v>514</v>
-      </c>
-      <c r="H53" t="s">
-        <v>518</v>
-      </c>
-      <c r="I53" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="54" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A54" t="s">
         <v>399</v>
       </c>
@@ -7488,23 +7588,26 @@
         <v>525</v>
       </c>
       <c r="E54">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F54" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" t="s">
+        <v>514</v>
+      </c>
+      <c r="H54" t="s">
+        <v>518</v>
+      </c>
+      <c r="I54" s="3">
+        <v>140</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="5"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="F54" t="s">
-        <v>399</v>
-      </c>
-      <c r="G54" t="s">
-        <v>514</v>
-      </c>
-      <c r="H54" t="s">
-        <v>518</v>
-      </c>
-      <c r="I54" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" t="s">
         <v>401</v>
       </c>
@@ -7533,7 +7636,7 @@
         <v>46508.896309999996</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" t="s">
         <v>403</v>
       </c>
@@ -7559,7 +7662,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1">
+    <row r="57" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A57" t="s">
         <v>405</v>
       </c>
@@ -7573,8 +7676,7 @@
         <v>525</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E60" si="6">I57*0.05*5*1.84</f>
-        <v>164.68000000000004</v>
+        <v>164.68</v>
       </c>
       <c r="F57" t="s">
         <v>405</v>
@@ -7588,8 +7690,12 @@
       <c r="I57" s="2">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1">
+      <c r="K57">
+        <f t="shared" ref="K57:K60" si="6">I57*0.05*5*1.84</f>
+        <v>164.68000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A58" t="s">
         <v>407</v>
       </c>
@@ -7603,23 +7709,26 @@
         <v>525</v>
       </c>
       <c r="E58">
+        <v>155.47999999999999</v>
+      </c>
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" t="s">
+        <v>514</v>
+      </c>
+      <c r="H58" t="s">
+        <v>518</v>
+      </c>
+      <c r="I58" s="3">
+        <v>338</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="6"/>
         <v>155.48000000000005</v>
       </c>
-      <c r="F58" t="s">
-        <v>407</v>
-      </c>
-      <c r="G58" t="s">
-        <v>514</v>
-      </c>
-      <c r="H58" t="s">
-        <v>518</v>
-      </c>
-      <c r="I58" s="3">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="59" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A59" t="s">
         <v>409</v>
       </c>
@@ -7633,23 +7742,26 @@
         <v>525</v>
       </c>
       <c r="E59">
+        <v>124.2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>514</v>
+      </c>
+      <c r="H59" t="s">
+        <v>518</v>
+      </c>
+      <c r="I59" s="4">
+        <v>270</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="6"/>
         <v>124.2</v>
       </c>
-      <c r="F59" t="s">
-        <v>409</v>
-      </c>
-      <c r="G59" t="s">
-        <v>514</v>
-      </c>
-      <c r="H59" t="s">
-        <v>518</v>
-      </c>
-      <c r="I59" s="4">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="60" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A60" t="s">
         <v>411</v>
       </c>
@@ -7663,23 +7775,26 @@
         <v>525</v>
       </c>
       <c r="E60">
+        <v>124.2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" t="s">
+        <v>514</v>
+      </c>
+      <c r="H60" t="s">
+        <v>518</v>
+      </c>
+      <c r="I60" s="3">
+        <v>270</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="6"/>
         <v>124.2</v>
       </c>
-      <c r="F60" t="s">
-        <v>411</v>
-      </c>
-      <c r="G60" t="s">
-        <v>514</v>
-      </c>
-      <c r="H60" t="s">
-        <v>518</v>
-      </c>
-      <c r="I60" s="3">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" t="s">
         <v>413</v>
       </c>
@@ -7705,7 +7820,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1">
+    <row r="62" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A62" t="s">
         <v>415</v>
       </c>
@@ -7719,8 +7834,7 @@
         <v>525</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E66" si="7">I62*0.05*5*1.84</f>
-        <v>92.920000000000016</v>
+        <v>92.92</v>
       </c>
       <c r="F62" t="s">
         <v>415</v>
@@ -7734,8 +7848,12 @@
       <c r="I62" s="4">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1">
+      <c r="K62">
+        <f t="shared" ref="K62:K66" si="7">I62*0.05*5*1.84</f>
+        <v>92.920000000000016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A63" t="s">
         <v>417</v>
       </c>
@@ -7749,23 +7867,26 @@
         <v>525</v>
       </c>
       <c r="E63">
+        <v>50.14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>417</v>
+      </c>
+      <c r="G63" t="s">
+        <v>514</v>
+      </c>
+      <c r="H63" t="s">
+        <v>518</v>
+      </c>
+      <c r="I63" s="3">
+        <v>109</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="7"/>
         <v>50.14</v>
       </c>
-      <c r="F63" t="s">
-        <v>417</v>
-      </c>
-      <c r="G63" t="s">
-        <v>514</v>
-      </c>
-      <c r="H63" t="s">
-        <v>518</v>
-      </c>
-      <c r="I63" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="64" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A64" t="s">
         <v>419</v>
       </c>
@@ -7779,23 +7900,26 @@
         <v>525</v>
       </c>
       <c r="E64">
+        <v>50.14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" t="s">
+        <v>514</v>
+      </c>
+      <c r="H64" t="s">
+        <v>518</v>
+      </c>
+      <c r="I64" s="4">
+        <v>109</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="7"/>
         <v>50.14</v>
       </c>
-      <c r="F64" t="s">
-        <v>419</v>
-      </c>
-      <c r="G64" t="s">
-        <v>514</v>
-      </c>
-      <c r="H64" t="s">
-        <v>518</v>
-      </c>
-      <c r="I64" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="65" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A65" t="s">
         <v>421</v>
       </c>
@@ -7809,23 +7933,26 @@
         <v>525</v>
       </c>
       <c r="E65">
+        <v>55.2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" t="s">
+        <v>514</v>
+      </c>
+      <c r="H65" t="s">
+        <v>518</v>
+      </c>
+      <c r="I65" s="3">
+        <v>120</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="7"/>
         <v>55.2</v>
       </c>
-      <c r="F65" t="s">
-        <v>421</v>
-      </c>
-      <c r="G65" t="s">
-        <v>514</v>
-      </c>
-      <c r="H65" t="s">
-        <v>518</v>
-      </c>
-      <c r="I65" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" thickBot="1">
+    </row>
+    <row r="66" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A66" t="s">
         <v>423</v>
       </c>
@@ -7839,23 +7966,26 @@
         <v>525</v>
       </c>
       <c r="E66">
+        <v>57.5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" t="s">
+        <v>514</v>
+      </c>
+      <c r="H66" t="s">
+        <v>518</v>
+      </c>
+      <c r="I66" s="4">
+        <v>125</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
-      <c r="F66" t="s">
-        <v>423</v>
-      </c>
-      <c r="G66" t="s">
-        <v>514</v>
-      </c>
-      <c r="H66" t="s">
-        <v>518</v>
-      </c>
-      <c r="I66" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" t="s">
         <v>425</v>
       </c>
@@ -7881,7 +8011,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" t="s">
         <v>427</v>
       </c>
@@ -7910,7 +8040,7 @@
         <v>65174.286350000002</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" t="s">
         <v>429</v>
       </c>
@@ -7936,7 +8066,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -7950,23 +8080,26 @@
         <v>525</v>
       </c>
       <c r="E70">
+        <v>51.52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>431</v>
+      </c>
+      <c r="G70" t="s">
+        <v>514</v>
+      </c>
+      <c r="H70" t="s">
+        <v>518</v>
+      </c>
+      <c r="I70" s="5">
+        <v>112</v>
+      </c>
+      <c r="K70">
         <f>I70*0.05*5*1.84</f>
         <v>51.52000000000001</v>
       </c>
-      <c r="F70" t="s">
-        <v>431</v>
-      </c>
-      <c r="G70" t="s">
-        <v>514</v>
-      </c>
-      <c r="H70" t="s">
-        <v>518</v>
-      </c>
-      <c r="I70" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -7979,7 +8112,7 @@
       <c r="D71" t="s">
         <v>528</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>11199.13654</v>
       </c>
       <c r="F71" t="s">
@@ -7992,7 +8125,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" t="s">
         <v>435</v>
       </c>
@@ -8018,7 +8151,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" s="13" t="s">
         <v>437</v>
       </c>
@@ -8028,8 +8161,12 @@
       <c r="C73" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="16"/>
+      <c r="D73" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
       <c r="F73" s="13" t="s">
         <v>437</v>
       </c>
@@ -8040,7 +8177,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" t="s">
         <v>439</v>
       </c>
@@ -8066,7 +8203,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" t="s">
         <v>441</v>
       </c>
@@ -8079,7 +8216,7 @@
       <c r="D75" t="s">
         <v>528</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="16">
         <v>11199.13654</v>
       </c>
       <c r="F75" t="s">
@@ -8092,7 +8229,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" t="s">
         <v>443</v>
       </c>
@@ -8105,7 +8242,7 @@
       <c r="D76" t="s">
         <v>528</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="16">
         <v>11199.13654</v>
       </c>
       <c r="F76" t="s">
@@ -8118,7 +8255,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" t="s">
         <v>445</v>
       </c>
@@ -8144,7 +8281,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" thickBot="1">
+    <row r="78" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A78" t="s">
         <v>447</v>
       </c>
@@ -8158,8 +8295,7 @@
         <v>525</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:E79" si="8">I78*0.05*5*1.84</f>
-        <v>52.440000000000005</v>
+        <v>52.44</v>
       </c>
       <c r="F78" t="s">
         <v>447</v>
@@ -8173,8 +8309,12 @@
       <c r="I78" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1">
+      <c r="K78">
+        <f t="shared" ref="K78:K79" si="8">I78*0.05*5*1.84</f>
+        <v>52.440000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A79" t="s">
         <v>449</v>
       </c>
@@ -8188,23 +8328,26 @@
         <v>525</v>
       </c>
       <c r="E79">
+        <v>57.96</v>
+      </c>
+      <c r="F79" t="s">
+        <v>449</v>
+      </c>
+      <c r="G79" t="s">
+        <v>514</v>
+      </c>
+      <c r="H79" t="s">
+        <v>518</v>
+      </c>
+      <c r="I79" s="3">
+        <v>126</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="8"/>
         <v>57.960000000000008</v>
       </c>
-      <c r="F79" t="s">
-        <v>449</v>
-      </c>
-      <c r="G79" t="s">
-        <v>514</v>
-      </c>
-      <c r="H79" t="s">
-        <v>518</v>
-      </c>
-      <c r="I79" s="3">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" t="s">
         <v>451</v>
       </c>
@@ -8230,7 +8373,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" t="s">
         <v>453</v>
       </c>
@@ -8259,7 +8402,7 @@
         <v>50450.655700000003</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1">
+    <row r="82" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A82" t="s">
         <v>455</v>
       </c>
@@ -8273,7 +8416,6 @@
         <v>525</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:E83" si="9">I82*0.05*5*1.84</f>
         <v>133.4</v>
       </c>
       <c r="F82" t="s">
@@ -8288,8 +8430,12 @@
       <c r="I82" s="2">
         <v>290</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1">
+      <c r="K82">
+        <f t="shared" ref="K82:K83" si="9">I82*0.05*5*1.84</f>
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A83" t="s">
         <v>457</v>
       </c>
@@ -8303,23 +8449,26 @@
         <v>525</v>
       </c>
       <c r="E83">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F83" t="s">
+        <v>457</v>
+      </c>
+      <c r="G83" t="s">
+        <v>514</v>
+      </c>
+      <c r="H83" t="s">
+        <v>518</v>
+      </c>
+      <c r="I83" s="3">
+        <v>140</v>
+      </c>
+      <c r="K83">
         <f t="shared" si="9"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="F83" t="s">
-        <v>457</v>
-      </c>
-      <c r="G83" t="s">
-        <v>514</v>
-      </c>
-      <c r="H83" t="s">
-        <v>518</v>
-      </c>
-      <c r="I83" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+    </row>
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" t="s">
         <v>459</v>
       </c>
@@ -8329,6 +8478,9 @@
       <c r="C84" t="s">
         <v>502</v>
       </c>
+      <c r="D84" s="13" t="s">
+        <v>533</v>
+      </c>
       <c r="E84">
         <v>44000000</v>
       </c>
@@ -8348,7 +8500,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" t="s">
         <v>461</v>
       </c>
@@ -8374,7 +8526,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" t="s">
         <v>463</v>
       </c>
@@ -8400,7 +8552,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1">
+    <row r="87" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A87" t="s">
         <v>465</v>
       </c>
@@ -8414,8 +8566,7 @@
         <v>525</v>
       </c>
       <c r="E87">
-        <f t="shared" ref="E87:E88" si="10">I87*0.05*5*1.84</f>
-        <v>147.20000000000002</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="F87" t="s">
         <v>465</v>
@@ -8429,8 +8580,12 @@
       <c r="I87" s="6">
         <v>320</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1">
+      <c r="K87">
+        <f t="shared" ref="K87:K88" si="10">I87*0.05*5*1.84</f>
+        <v>147.20000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -8444,24 +8599,33 @@
         <v>525</v>
       </c>
       <c r="E88">
+        <v>123.28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>467</v>
+      </c>
+      <c r="G88" t="s">
+        <v>514</v>
+      </c>
+      <c r="H88" t="s">
+        <v>518</v>
+      </c>
+      <c r="I88" s="4">
+        <v>268</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="10"/>
         <v>123.28</v>
       </c>
-      <c r="F88" t="s">
-        <v>467</v>
-      </c>
-      <c r="G88" t="s">
-        <v>514</v>
-      </c>
-      <c r="H88" t="s">
-        <v>518</v>
-      </c>
-      <c r="I88" s="4">
-        <v>268</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}"/>
+  <autoFilter ref="A1:I88" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="None"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD691DBF-4782-4E00-B301-563A86C6F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450E67A8-F512-4B61-B58F-ECAE9E314B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43560" yWindow="0" windowWidth="12645" windowHeight="13230" activeTab="1" xr2:uid="{434A3C5A-F25B-4D0E-811A-071EB5335F48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{434A3C5A-F25B-4D0E-811A-071EB5335F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="541">
   <si>
     <t>Identifier</t>
   </si>
@@ -1642,13 +1642,34 @@
   </si>
   <si>
     <t>W7</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,8 +1715,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1813,7 +1845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1848,6 +1880,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,14 +2198,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08320BB1-13B0-4535-A290-A54C57E2FDBE}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2191,7 +2226,7 @@
       <c r="E1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>471</v>
       </c>
       <c r="G1" t="s">
@@ -2217,7 +2252,7 @@
       <c r="E2" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G2" t="s">
@@ -2243,7 +2278,7 @@
       <c r="E3" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G3" t="s">
@@ -2269,7 +2304,7 @@
       <c r="E4" t="s">
         <v>503</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G4" t="s">
@@ -2321,7 +2356,7 @@
       <c r="E6" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G6" t="s">
@@ -2347,8 +2382,8 @@
       <c r="E7" t="s">
         <v>482</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>531</v>
+      <c r="F7" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2373,7 +2408,7 @@
       <c r="E8" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G8" t="s">
@@ -2399,8 +2434,8 @@
       <c r="E9" t="s">
         <v>482</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>531</v>
+      <c r="F9" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -2425,7 +2460,7 @@
       <c r="E10" t="s">
         <v>503</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G10" t="s">
@@ -2451,7 +2486,7 @@
       <c r="E11" t="s">
         <v>482</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G11" t="s">
@@ -2477,7 +2512,7 @@
       <c r="E12" t="s">
         <v>482</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G12" t="s">
@@ -2503,7 +2538,7 @@
       <c r="E13" t="s">
         <v>482</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G13" t="s">
@@ -2529,7 +2564,7 @@
       <c r="E14" t="s">
         <v>503</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G14" t="s">
@@ -2555,8 +2590,8 @@
       <c r="E15" t="s">
         <v>482</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>531</v>
+      <c r="F15" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -2581,7 +2616,7 @@
       <c r="E16" t="s">
         <v>482</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G16" t="s">
@@ -2607,8 +2642,8 @@
       <c r="E17" t="s">
         <v>482</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>531</v>
+      <c r="F17" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2633,8 +2668,8 @@
       <c r="E18" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>531</v>
+      <c r="F18" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -2659,7 +2694,7 @@
       <c r="E19" t="s">
         <v>482</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G19" t="s">
@@ -2685,7 +2720,7 @@
       <c r="E20" t="s">
         <v>482</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G20" t="s">
@@ -2711,7 +2746,7 @@
       <c r="E21" t="s">
         <v>503</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G21" t="s">
@@ -2737,8 +2772,8 @@
       <c r="E22" t="s">
         <v>482</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>531</v>
+      <c r="F22" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2763,8 +2798,8 @@
       <c r="E23" t="s">
         <v>482</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>531</v>
+      <c r="F23" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2789,7 +2824,7 @@
       <c r="E24" t="s">
         <v>503</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G24" t="s">
@@ -2815,8 +2850,8 @@
       <c r="E25" t="s">
         <v>482</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>531</v>
+      <c r="F25" s="17" t="s">
+        <v>534</v>
       </c>
       <c r="G25" t="s">
         <v>49</v>
@@ -2841,7 +2876,7 @@
       <c r="E26" t="s">
         <v>503</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G26" t="s">
@@ -2867,7 +2902,7 @@
       <c r="E27" t="s">
         <v>503</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G27" t="s">
@@ -2893,7 +2928,7 @@
       <c r="E28" t="s">
         <v>503</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G28" t="s">
@@ -2919,7 +2954,7 @@
       <c r="E29" t="s">
         <v>503</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G29" t="s">
@@ -2945,7 +2980,7 @@
       <c r="E30" t="s">
         <v>482</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G30" t="s">
@@ -2971,8 +3006,8 @@
       <c r="E31" t="s">
         <v>482</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>531</v>
+      <c r="F31" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G31" t="s">
         <v>61</v>
@@ -2997,7 +3032,7 @@
       <c r="E32" t="s">
         <v>482</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G32" t="s">
@@ -3023,8 +3058,8 @@
       <c r="E33" t="s">
         <v>482</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>531</v>
+      <c r="F33" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="G33" t="s">
         <v>65</v>
@@ -3049,7 +3084,7 @@
       <c r="E34" t="s">
         <v>482</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G34" t="s">
@@ -3075,8 +3110,8 @@
       <c r="E35" t="s">
         <v>482</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>531</v>
+      <c r="F35" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="G35" t="s">
         <v>69</v>
@@ -3101,8 +3136,8 @@
       <c r="E36" t="s">
         <v>482</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>531</v>
+      <c r="F36" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G36" t="s">
         <v>71</v>
@@ -3127,8 +3162,8 @@
       <c r="E37" t="s">
         <v>482</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>531</v>
+      <c r="F37" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="G37" t="s">
         <v>73</v>
@@ -3153,7 +3188,7 @@
       <c r="E38" t="s">
         <v>503</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G38" t="s">
@@ -3179,8 +3214,8 @@
       <c r="E39" t="s">
         <v>482</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>531</v>
+      <c r="F39" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -3205,7 +3240,7 @@
       <c r="E40" t="s">
         <v>503</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G40" t="s">
@@ -3231,7 +3266,7 @@
       <c r="E41" t="s">
         <v>503</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G41" t="s">
@@ -3257,7 +3292,7 @@
       <c r="E42" t="s">
         <v>503</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G42" t="s">
@@ -3283,8 +3318,8 @@
       <c r="E43" t="s">
         <v>482</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>531</v>
+      <c r="F43" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G43" t="s">
         <v>85</v>
@@ -3309,7 +3344,7 @@
       <c r="E44" t="s">
         <v>482</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G44" t="s">
@@ -3335,7 +3370,7 @@
       <c r="E45" t="s">
         <v>482</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G45" t="s">
@@ -3361,7 +3396,7 @@
       <c r="E46" t="s">
         <v>503</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G46" t="s">
@@ -3387,8 +3422,8 @@
       <c r="E47" t="s">
         <v>482</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>531</v>
+      <c r="F47" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G47" t="s">
         <v>93</v>
@@ -3413,7 +3448,7 @@
       <c r="E48" t="s">
         <v>482</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G48" t="s">
@@ -3439,7 +3474,7 @@
       <c r="E49" t="s">
         <v>503</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G49" t="s">
@@ -3465,7 +3500,7 @@
       <c r="E50" t="s">
         <v>482</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G50" t="s">
@@ -3491,7 +3526,7 @@
       <c r="E51" t="s">
         <v>482</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G51" t="s">
@@ -3517,8 +3552,8 @@
       <c r="E52" t="s">
         <v>482</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>531</v>
+      <c r="F52" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="G52" t="s">
         <v>103</v>
@@ -3543,7 +3578,7 @@
       <c r="E53" t="s">
         <v>503</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G53" t="s">
@@ -3569,7 +3604,7 @@
       <c r="E54" t="s">
         <v>503</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G54" t="s">
@@ -3595,7 +3630,7 @@
       <c r="E55" t="s">
         <v>482</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G55" t="s">
@@ -3621,7 +3656,7 @@
       <c r="E56" t="s">
         <v>503</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G56" t="s">
@@ -3647,8 +3682,8 @@
       <c r="E57" t="s">
         <v>482</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>531</v>
+      <c r="F57" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G57" t="s">
         <v>113</v>
@@ -3673,8 +3708,8 @@
       <c r="E58" t="s">
         <v>482</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>531</v>
+      <c r="F58" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G58" t="s">
         <v>115</v>
@@ -3699,7 +3734,7 @@
       <c r="E59" t="s">
         <v>503</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G59" t="s">
@@ -3725,7 +3760,7 @@
       <c r="E60" t="s">
         <v>503</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G60" t="s">
@@ -3751,7 +3786,7 @@
       <c r="E61" t="s">
         <v>503</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G61" t="s">
@@ -3777,7 +3812,7 @@
       <c r="E62" t="s">
         <v>503</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G62" t="s">
@@ -3803,7 +3838,7 @@
       <c r="E63" t="s">
         <v>503</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G63" t="s">
@@ -3829,7 +3864,7 @@
       <c r="E64" t="s">
         <v>503</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G64" t="s">
@@ -3855,7 +3890,7 @@
       <c r="E65" t="s">
         <v>503</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G65" t="s">
@@ -3881,7 +3916,7 @@
       <c r="E66" t="s">
         <v>503</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G66" t="s">
@@ -3907,7 +3942,7 @@
       <c r="E67" t="s">
         <v>482</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G67" t="s">
@@ -3933,8 +3968,8 @@
       <c r="E68" t="s">
         <v>482</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>531</v>
+      <c r="F68" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G68" t="s">
         <v>135</v>
@@ -3959,7 +3994,7 @@
       <c r="E69" t="s">
         <v>482</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G69" t="s">
@@ -4011,7 +4046,7 @@
       <c r="E71" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G71" t="s">
@@ -4037,8 +4072,8 @@
       <c r="E72" t="s">
         <v>482</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>531</v>
+      <c r="F72" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G72" t="s">
         <v>143</v>
@@ -4063,7 +4098,7 @@
       <c r="E73" t="s">
         <v>503</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G73" t="s">
@@ -4089,7 +4124,7 @@
       <c r="E74" t="s">
         <v>503</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G74" t="s">
@@ -4115,8 +4150,8 @@
       <c r="E75" t="s">
         <v>482</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>531</v>
+      <c r="F75" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="G75" t="s">
         <v>149</v>
@@ -4141,7 +4176,7 @@
       <c r="E76" t="s">
         <v>503</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G76" t="s">
@@ -4167,7 +4202,7 @@
       <c r="E77" t="s">
         <v>503</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G77" t="s">
@@ -4193,7 +4228,7 @@
       <c r="E78" t="s">
         <v>482</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G78" t="s">
@@ -4219,8 +4254,8 @@
       <c r="E79" t="s">
         <v>482</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>531</v>
+      <c r="F79" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G79" t="s">
         <v>157</v>
@@ -4245,7 +4280,7 @@
       <c r="E80" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G80" t="s">
@@ -4271,7 +4306,7 @@
       <c r="E81" t="s">
         <v>503</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G81" t="s">
@@ -4297,7 +4332,7 @@
       <c r="E82" t="s">
         <v>482</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G82" t="s">
@@ -4323,8 +4358,8 @@
       <c r="E83" t="s">
         <v>482</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>531</v>
+      <c r="F83" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="G83" t="s">
         <v>165</v>
@@ -4349,7 +4384,7 @@
       <c r="E84" t="s">
         <v>482</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F84" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G84" t="s">
@@ -4375,8 +4410,8 @@
       <c r="E85" t="s">
         <v>482</v>
       </c>
-      <c r="F85" s="15" t="s">
-        <v>531</v>
+      <c r="F85" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G85" t="s">
         <v>169</v>
@@ -4401,7 +4436,7 @@
       <c r="E86" t="s">
         <v>482</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G86" t="s">
@@ -4427,7 +4462,7 @@
       <c r="E87" t="s">
         <v>503</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G87" t="s">
@@ -4453,8 +4488,8 @@
       <c r="E88" t="s">
         <v>482</v>
       </c>
-      <c r="F88" s="15" t="s">
-        <v>531</v>
+      <c r="F88" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G88" t="s">
         <v>175</v>
@@ -4479,7 +4514,7 @@
       <c r="E89" t="s">
         <v>503</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G89" t="s">
@@ -4505,7 +4540,7 @@
       <c r="E90" t="s">
         <v>503</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G90" t="s">
@@ -4531,7 +4566,7 @@
       <c r="E91" t="s">
         <v>482</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G91" t="s">
@@ -4557,8 +4592,8 @@
       <c r="E92" t="s">
         <v>482</v>
       </c>
-      <c r="F92" s="15" t="s">
-        <v>531</v>
+      <c r="F92" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G92" t="s">
         <v>183</v>
@@ -4583,7 +4618,7 @@
       <c r="E93" t="s">
         <v>503</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G93" t="s">
@@ -4609,7 +4644,7 @@
       <c r="E94" t="s">
         <v>503</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G94" t="s">
@@ -4635,8 +4670,8 @@
       <c r="E95" t="s">
         <v>482</v>
       </c>
-      <c r="F95" s="15" t="s">
-        <v>531</v>
+      <c r="F95" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G95" t="s">
         <v>189</v>
@@ -4661,7 +4696,7 @@
       <c r="E96" t="s">
         <v>503</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G96" t="s">
@@ -4687,8 +4722,8 @@
       <c r="E97" t="s">
         <v>482</v>
       </c>
-      <c r="F97" s="15" t="s">
-        <v>531</v>
+      <c r="F97" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G97" t="s">
         <v>193</v>
@@ -4713,8 +4748,8 @@
       <c r="E98" t="s">
         <v>482</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>531</v>
+      <c r="F98" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G98" t="s">
         <v>195</v>
@@ -4739,7 +4774,7 @@
       <c r="E99" t="s">
         <v>503</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G99" t="s">
@@ -4765,8 +4800,8 @@
       <c r="E100" t="s">
         <v>482</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>531</v>
+      <c r="F100" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G100" t="s">
         <v>199</v>
@@ -4791,8 +4826,8 @@
       <c r="E101" t="s">
         <v>482</v>
       </c>
-      <c r="F101" s="15" t="s">
-        <v>531</v>
+      <c r="F101" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G101" t="s">
         <v>201</v>
@@ -4817,7 +4852,7 @@
       <c r="E102" t="s">
         <v>482</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G102" t="s">
@@ -4843,8 +4878,8 @@
       <c r="E103" t="s">
         <v>482</v>
       </c>
-      <c r="F103" s="15" t="s">
-        <v>531</v>
+      <c r="F103" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G103" t="s">
         <v>205</v>
@@ -4869,7 +4904,7 @@
       <c r="E104" t="s">
         <v>503</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G104" t="s">
@@ -4895,7 +4930,7 @@
       <c r="E105" t="s">
         <v>503</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G105" t="s">
@@ -4921,8 +4956,8 @@
       <c r="E106" t="s">
         <v>482</v>
       </c>
-      <c r="F106" s="15" t="s">
-        <v>531</v>
+      <c r="F106" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G106" t="s">
         <v>211</v>
@@ -4947,8 +4982,8 @@
       <c r="E107" t="s">
         <v>482</v>
       </c>
-      <c r="F107" s="15" t="s">
-        <v>531</v>
+      <c r="F107" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G107" t="s">
         <v>213</v>
@@ -4973,7 +5008,7 @@
       <c r="E108" t="s">
         <v>503</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G108" t="s">
@@ -4999,7 +5034,7 @@
       <c r="E109" t="s">
         <v>482</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G109" t="s">
@@ -5025,7 +5060,7 @@
       <c r="E110" t="s">
         <v>503</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G110" t="s">
@@ -5051,7 +5086,7 @@
       <c r="E111" t="s">
         <v>482</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="F111" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G111" t="s">
@@ -5077,7 +5112,7 @@
       <c r="E112" t="s">
         <v>503</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G112" t="s">
@@ -5103,8 +5138,8 @@
       <c r="E113" t="s">
         <v>482</v>
       </c>
-      <c r="F113" s="15" t="s">
-        <v>531</v>
+      <c r="F113" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G113" t="s">
         <v>225</v>
@@ -5129,8 +5164,8 @@
       <c r="E114" t="s">
         <v>482</v>
       </c>
-      <c r="F114" s="15" t="s">
-        <v>531</v>
+      <c r="F114" s="17" t="s">
+        <v>534</v>
       </c>
       <c r="G114" t="s">
         <v>227</v>
@@ -5155,7 +5190,7 @@
       <c r="E115" t="s">
         <v>503</v>
       </c>
-      <c r="F115" s="15" t="s">
+      <c r="F115" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G115" t="s">
@@ -5181,8 +5216,8 @@
       <c r="E116" t="s">
         <v>482</v>
       </c>
-      <c r="F116" s="15" t="s">
-        <v>531</v>
+      <c r="F116" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G116" t="s">
         <v>231</v>
@@ -5207,7 +5242,7 @@
       <c r="E117" t="s">
         <v>503</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G117" t="s">
@@ -5233,7 +5268,7 @@
       <c r="E118" t="s">
         <v>482</v>
       </c>
-      <c r="F118" s="15" t="s">
+      <c r="F118" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G118" t="s">
@@ -5259,7 +5294,7 @@
       <c r="E119" t="s">
         <v>503</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="F119" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G119" t="s">
@@ -5285,7 +5320,7 @@
       <c r="E120" t="s">
         <v>503</v>
       </c>
-      <c r="F120" s="15" t="s">
+      <c r="F120" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G120" t="s">
@@ -5311,8 +5346,8 @@
       <c r="E121" t="s">
         <v>482</v>
       </c>
-      <c r="F121" s="15" t="s">
-        <v>531</v>
+      <c r="F121" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G121" t="s">
         <v>241</v>
@@ -5337,7 +5372,7 @@
       <c r="E122" t="s">
         <v>482</v>
       </c>
-      <c r="F122" s="15" t="s">
+      <c r="F122" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G122" t="s">
@@ -5363,7 +5398,7 @@
       <c r="E123" t="s">
         <v>503</v>
       </c>
-      <c r="F123" s="15" t="s">
+      <c r="F123" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G123" t="s">
@@ -5389,7 +5424,7 @@
       <c r="E124" t="s">
         <v>503</v>
       </c>
-      <c r="F124" s="15" t="s">
+      <c r="F124" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G124" t="s">
@@ -5415,8 +5450,8 @@
       <c r="E125" t="s">
         <v>482</v>
       </c>
-      <c r="F125" s="15" t="s">
-        <v>531</v>
+      <c r="F125" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="G125" t="s">
         <v>249</v>
@@ -5441,7 +5476,7 @@
       <c r="E126" t="s">
         <v>482</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="F126" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G126" t="s">
@@ -5467,7 +5502,7 @@
       <c r="E127" t="s">
         <v>503</v>
       </c>
-      <c r="F127" s="15" t="s">
+      <c r="F127" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G127" t="s">
@@ -5493,7 +5528,7 @@
       <c r="E128" t="s">
         <v>482</v>
       </c>
-      <c r="F128" s="15" t="s">
+      <c r="F128" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G128" t="s">
@@ -5519,7 +5554,7 @@
       <c r="E129" t="s">
         <v>503</v>
       </c>
-      <c r="F129" s="15" t="s">
+      <c r="F129" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G129" t="s">
@@ -5545,7 +5580,7 @@
       <c r="E130" t="s">
         <v>503</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G130" t="s">
@@ -5571,7 +5606,7 @@
       <c r="E131" t="s">
         <v>503</v>
       </c>
-      <c r="F131" s="15" t="s">
+      <c r="F131" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G131" t="s">
@@ -5597,7 +5632,7 @@
       <c r="E132" t="s">
         <v>482</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="F132" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G132" t="s">
@@ -5623,7 +5658,7 @@
       <c r="E133" t="s">
         <v>503</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F133" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G133" t="s">
@@ -5649,7 +5684,7 @@
       <c r="E134" t="s">
         <v>482</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="F134" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G134" t="s">
@@ -5675,7 +5710,7 @@
       <c r="E135" t="s">
         <v>503</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="F135" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G135" t="s">
@@ -5701,7 +5736,7 @@
       <c r="E136" t="s">
         <v>482</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="F136" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G136" t="s">
@@ -5727,7 +5762,7 @@
       <c r="E137" t="s">
         <v>503</v>
       </c>
-      <c r="F137" s="15" t="s">
+      <c r="F137" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G137" t="s">
@@ -5753,7 +5788,7 @@
       <c r="E138" t="s">
         <v>503</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="F138" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G138" t="s">
@@ -5779,7 +5814,7 @@
       <c r="E139" t="s">
         <v>482</v>
       </c>
-      <c r="F139" s="15" t="s">
+      <c r="F139" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G139" t="s">
@@ -5805,7 +5840,7 @@
       <c r="E140" t="s">
         <v>503</v>
       </c>
-      <c r="F140" s="15" t="s">
+      <c r="F140" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G140" t="s">
@@ -5831,7 +5866,7 @@
       <c r="E141" t="s">
         <v>482</v>
       </c>
-      <c r="F141" s="15" t="s">
+      <c r="F141" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G141" t="s">
@@ -5857,7 +5892,7 @@
       <c r="E142" t="s">
         <v>482</v>
       </c>
-      <c r="F142" s="15" t="s">
+      <c r="F142" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G142" t="s">
@@ -5878,12 +5913,12 @@
         <v>54.199511000000001</v>
       </c>
       <c r="D143" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="E143" t="s">
         <v>482</v>
       </c>
-      <c r="F143" s="15" t="s">
+      <c r="F143" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G143" t="s">
@@ -5909,7 +5944,7 @@
       <c r="E144" t="s">
         <v>482</v>
       </c>
-      <c r="F144" s="15" t="s">
+      <c r="F144" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G144" t="s">
@@ -5935,8 +5970,8 @@
       <c r="E145" t="s">
         <v>482</v>
       </c>
-      <c r="F145" s="15" t="s">
-        <v>531</v>
+      <c r="F145" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="G145" t="s">
         <v>289</v>
@@ -5961,7 +5996,7 @@
       <c r="E146" t="s">
         <v>503</v>
       </c>
-      <c r="F146" s="15" t="s">
+      <c r="F146" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G146" t="s">
@@ -5987,7 +6022,7 @@
       <c r="E147" t="s">
         <v>482</v>
       </c>
-      <c r="F147" s="15" t="s">
+      <c r="F147" s="17" t="s">
         <v>531</v>
       </c>
       <c r="G147" t="s">
@@ -6006,11 +6041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6046,7 +6080,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>295</v>
       </c>
@@ -6059,8 +6093,8 @@
       <c r="D2" t="s">
         <v>533</v>
       </c>
-      <c r="E2" s="17">
-        <v>200000</v>
+      <c r="E2" s="18">
+        <v>1732320</v>
       </c>
       <c r="F2" t="s">
         <v>295</v>
@@ -6075,7 +6109,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>297</v>
       </c>
@@ -6101,7 +6135,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>299</v>
       </c>
@@ -6127,7 +6161,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>301</v>
       </c>
@@ -6156,7 +6190,7 @@
         <v>50412.010999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>303</v>
       </c>
@@ -6182,7 +6216,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>305</v>
       </c>
@@ -6215,7 +6249,7 @@
         <v>170.20000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -6248,7 +6282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -6281,7 +6315,7 @@
         <v>72.680000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>311</v>
       </c>
@@ -6314,7 +6348,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -6340,7 +6374,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>315</v>
       </c>
@@ -6369,7 +6403,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>317</v>
       </c>
@@ -6395,7 +6429,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -6421,7 +6455,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -6447,7 +6481,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.8" hidden="1" customHeight="1">
+    <row r="16" spans="1:11" ht="13.8" customHeight="1">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -6502,7 +6536,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -6528,7 +6562,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>329</v>
       </c>
@@ -6554,7 +6588,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20" t="s">
         <v>331</v>
       </c>
@@ -6587,7 +6621,7 @@
         <v>48.300000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>333</v>
       </c>
@@ -6620,7 +6654,7 @@
         <v>151.80000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -6653,7 +6687,7 @@
         <v>151.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -6686,7 +6720,7 @@
         <v>107.64000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -6719,7 +6753,7 @@
         <v>107.64000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>341</v>
       </c>
@@ -6752,7 +6786,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>343</v>
       </c>
@@ -6785,7 +6819,7 @@
         <v>60.720000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="13" t="s">
         <v>345</v>
       </c>
@@ -6811,7 +6845,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15" thickBot="1">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -6844,7 +6878,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="A29" t="s">
         <v>349</v>
       </c>
@@ -6877,7 +6911,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>351</v>
       </c>
@@ -6890,8 +6924,8 @@
       <c r="D30" t="s">
         <v>528</v>
       </c>
-      <c r="E30" s="16">
-        <v>11199.13654</v>
+      <c r="E30" s="11">
+        <v>5558.8207439999996</v>
       </c>
       <c r="F30" t="s">
         <v>351</v>
@@ -6903,7 +6937,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>353</v>
       </c>
@@ -6929,7 +6963,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -6955,7 +6989,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>357</v>
       </c>
@@ -6968,8 +7002,8 @@
       <c r="D33" t="s">
         <v>528</v>
       </c>
-      <c r="E33" s="16">
-        <v>11199.13654</v>
+      <c r="E33" s="11">
+        <v>8359.6771829999998</v>
       </c>
       <c r="F33" t="s">
         <v>357</v>
@@ -7007,7 +7041,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>361</v>
       </c>
@@ -7033,7 +7067,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -7062,7 +7096,7 @@
         <v>37659.260040000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>365</v>
       </c>
@@ -7095,7 +7129,7 @@
         <v>57.960000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>367</v>
       </c>
@@ -7108,8 +7142,8 @@
       <c r="D38" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E38" s="15">
-        <v>938</v>
+      <c r="E38" s="19">
+        <v>1017.817839</v>
       </c>
       <c r="F38" t="s">
         <v>367</v>
@@ -7121,7 +7155,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>369</v>
       </c>
@@ -7147,7 +7181,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>371</v>
       </c>
@@ -7180,7 +7214,7 @@
         <v>47.84</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>373</v>
       </c>
@@ -7213,7 +7247,7 @@
         <v>58.88</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11" ht="15" thickBot="1">
       <c r="A42" t="s">
         <v>375</v>
       </c>
@@ -7239,7 +7273,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15" thickBot="1">
       <c r="A43" t="s">
         <v>377</v>
       </c>
@@ -7272,7 +7306,7 @@
         <v>115.46000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -7298,7 +7332,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -7331,7 +7365,7 @@
         <v>77.28</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>383</v>
       </c>
@@ -7364,7 +7398,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15" thickBot="1">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -7449,7 +7483,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11" ht="15" thickBot="1">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -7475,7 +7509,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15" thickBot="1">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -7508,7 +7542,7 @@
         <v>151.34</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>395</v>
       </c>
@@ -7541,7 +7575,7 @@
         <v>90.620000000000019</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15" thickBot="1">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -7574,7 +7608,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15" thickBot="1">
       <c r="A54" t="s">
         <v>399</v>
       </c>
@@ -7607,7 +7641,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>401</v>
       </c>
@@ -7636,7 +7670,7 @@
         <v>46508.896309999996</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11" ht="15" thickBot="1">
       <c r="A56" t="s">
         <v>403</v>
       </c>
@@ -7649,8 +7683,8 @@
       <c r="D56" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E56" s="15">
-        <v>938</v>
+      <c r="E56" s="19">
+        <v>1761.4671989999999</v>
       </c>
       <c r="F56" t="s">
         <v>403</v>
@@ -7662,7 +7696,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15" thickBot="1">
       <c r="A57" t="s">
         <v>405</v>
       </c>
@@ -7695,7 +7729,7 @@
         <v>164.68000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15" thickBot="1">
       <c r="A58" t="s">
         <v>407</v>
       </c>
@@ -7728,7 +7762,7 @@
         <v>155.48000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15" thickBot="1">
       <c r="A59" t="s">
         <v>409</v>
       </c>
@@ -7761,7 +7795,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15" thickBot="1">
       <c r="A60" t="s">
         <v>411</v>
       </c>
@@ -7794,7 +7828,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11" ht="15" thickBot="1">
       <c r="A61" t="s">
         <v>413</v>
       </c>
@@ -7820,7 +7854,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15" thickBot="1">
       <c r="A62" t="s">
         <v>415</v>
       </c>
@@ -7853,7 +7887,7 @@
         <v>92.920000000000016</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15" thickBot="1">
       <c r="A63" t="s">
         <v>417</v>
       </c>
@@ -7886,7 +7920,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15" thickBot="1">
       <c r="A64" t="s">
         <v>419</v>
       </c>
@@ -7919,7 +7953,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15" thickBot="1">
       <c r="A65" t="s">
         <v>421</v>
       </c>
@@ -7952,7 +7986,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15" thickBot="1">
       <c r="A66" t="s">
         <v>423</v>
       </c>
@@ -7985,7 +8019,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>425</v>
       </c>
@@ -8011,7 +8045,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>427</v>
       </c>
@@ -8040,7 +8074,7 @@
         <v>65174.286350000002</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>429</v>
       </c>
@@ -8066,7 +8100,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -8099,7 +8133,7 @@
         <v>51.52000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>433</v>
       </c>
@@ -8113,7 +8147,7 @@
         <v>528</v>
       </c>
       <c r="E71" s="16">
-        <v>11199.13654</v>
+        <v>40142.316980000003</v>
       </c>
       <c r="F71" t="s">
         <v>433</v>
@@ -8125,7 +8159,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>435</v>
       </c>
@@ -8177,7 +8211,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>439</v>
       </c>
@@ -8190,8 +8224,8 @@
       <c r="D74" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E74" s="15">
-        <v>938</v>
+      <c r="E74" s="19">
+        <v>1256.997198</v>
       </c>
       <c r="F74" t="s">
         <v>439</v>
@@ -8203,7 +8237,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>441</v>
       </c>
@@ -8216,8 +8250,8 @@
       <c r="D75" t="s">
         <v>528</v>
       </c>
-      <c r="E75" s="16">
-        <v>11199.13654</v>
+      <c r="E75" s="11">
+        <v>10324.136979999999</v>
       </c>
       <c r="F75" t="s">
         <v>441</v>
@@ -8229,7 +8263,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>443</v>
       </c>
@@ -8242,8 +8276,8 @@
       <c r="D76" t="s">
         <v>528</v>
       </c>
-      <c r="E76" s="16">
-        <v>11199.13654</v>
+      <c r="E76" s="11">
+        <v>10028.18125</v>
       </c>
       <c r="F76" t="s">
         <v>443</v>
@@ -8255,7 +8289,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11" ht="15" thickBot="1">
       <c r="A77" t="s">
         <v>445</v>
       </c>
@@ -8268,8 +8302,8 @@
       <c r="D77" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E77" s="15">
-        <v>938</v>
+      <c r="E77" s="19">
+        <v>1220.963626</v>
       </c>
       <c r="F77" t="s">
         <v>445</v>
@@ -8281,7 +8315,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15" thickBot="1">
       <c r="A78" t="s">
         <v>447</v>
       </c>
@@ -8314,7 +8348,7 @@
         <v>52.440000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15" thickBot="1">
       <c r="A79" t="s">
         <v>449</v>
       </c>
@@ -8347,7 +8381,7 @@
         <v>57.960000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>451</v>
       </c>
@@ -8373,7 +8407,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11" ht="15" thickBot="1">
       <c r="A81" t="s">
         <v>453</v>
       </c>
@@ -8402,7 +8436,7 @@
         <v>50450.655700000003</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15" thickBot="1">
       <c r="A82" t="s">
         <v>455</v>
       </c>
@@ -8435,7 +8469,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15" thickBot="1">
       <c r="A83" t="s">
         <v>457</v>
       </c>
@@ -8468,7 +8502,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>459</v>
       </c>
@@ -8500,7 +8534,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>461</v>
       </c>
@@ -8510,23 +8544,23 @@
       <c r="C85" t="s">
         <v>509</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="E85" s="15">
-        <v>938</v>
-      </c>
-      <c r="F85" t="s">
-        <v>461</v>
-      </c>
-      <c r="G85" t="s">
-        <v>514</v>
-      </c>
-      <c r="H85" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1">
+      <c r="D85" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickBot="1">
       <c r="A86" t="s">
         <v>463</v>
       </c>
@@ -8539,8 +8573,8 @@
       <c r="D86" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E86" s="15">
-        <v>938</v>
+      <c r="E86" s="19">
+        <v>1256.997198</v>
       </c>
       <c r="F86" t="s">
         <v>463</v>
@@ -8552,7 +8586,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15" thickBot="1">
       <c r="A87" t="s">
         <v>465</v>
       </c>
@@ -8585,7 +8619,7 @@
         <v>147.20000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" hidden="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15" thickBot="1">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -8619,13 +8653,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="None"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I88" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450E67A8-F512-4B61-B58F-ECAE9E314B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{434A3C5A-F25B-4D0E-811A-071EB5335F48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1942,7 +1936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1994,7 +1988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2188,14 +2182,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08320BB1-13B0-4535-A290-A54C57E2FDBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6033,18 +6027,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H147" xr:uid="{08320BB1-13B0-4535-A290-A54C57E2FDBE}"/>
+  <autoFilter ref="A1:H147"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="R78" sqref="R78"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8550,8 +8544,8 @@
       <c r="E85" s="13">
         <v>0</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>437</v>
+      <c r="F85" t="s">
+        <v>461</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>514</v>
@@ -8653,7 +8647,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88" xr:uid="{11737405-F431-4B6D-9FF2-3A96825A4978}"/>
+  <autoFilter ref="A1:I88"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Node_Information_TU.xlsx
+++ b/Node_Information_TU.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE7405-1441-424A-AD89-35257CA8E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="28500" yWindow="870" windowWidth="19725" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1662,8 +1668,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,12 +1707,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1839,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1875,7 +1875,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2182,14 +2181,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2200,7 +2199,7 @@
   <cols>
     <col min="2" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="6" max="6" width="8.88671875" style="16"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2220,7 +2219,7 @@
       <c r="E1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>471</v>
       </c>
       <c r="G1" t="s">
@@ -2246,7 +2245,7 @@
       <c r="E2" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G2" t="s">
@@ -2272,7 +2271,7 @@
       <c r="E3" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G3" t="s">
@@ -2298,7 +2297,7 @@
       <c r="E4" t="s">
         <v>503</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G4" t="s">
@@ -2350,7 +2349,7 @@
       <c r="E6" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G6" t="s">
@@ -2376,7 +2375,7 @@
       <c r="E7" t="s">
         <v>482</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G7" t="s">
@@ -2402,7 +2401,7 @@
       <c r="E8" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G8" t="s">
@@ -2428,7 +2427,7 @@
       <c r="E9" t="s">
         <v>482</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G9" t="s">
@@ -2454,7 +2453,7 @@
       <c r="E10" t="s">
         <v>503</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G10" t="s">
@@ -2480,7 +2479,7 @@
       <c r="E11" t="s">
         <v>482</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G11" t="s">
@@ -2506,7 +2505,7 @@
       <c r="E12" t="s">
         <v>482</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G12" t="s">
@@ -2532,7 +2531,7 @@
       <c r="E13" t="s">
         <v>482</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G13" t="s">
@@ -2558,7 +2557,7 @@
       <c r="E14" t="s">
         <v>503</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G14" t="s">
@@ -2584,7 +2583,7 @@
       <c r="E15" t="s">
         <v>482</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G15" t="s">
@@ -2610,7 +2609,7 @@
       <c r="E16" t="s">
         <v>482</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G16" t="s">
@@ -2636,7 +2635,7 @@
       <c r="E17" t="s">
         <v>482</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>540</v>
       </c>
       <c r="G17" t="s">
@@ -2662,7 +2661,7 @@
       <c r="E18" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>540</v>
       </c>
       <c r="G18" t="s">
@@ -2688,7 +2687,7 @@
       <c r="E19" t="s">
         <v>482</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G19" t="s">
@@ -2714,7 +2713,7 @@
       <c r="E20" t="s">
         <v>482</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G20" t="s">
@@ -2740,7 +2739,7 @@
       <c r="E21" t="s">
         <v>503</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G21" t="s">
@@ -2766,7 +2765,7 @@
       <c r="E22" t="s">
         <v>482</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G22" t="s">
@@ -2792,7 +2791,7 @@
       <c r="E23" t="s">
         <v>482</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>537</v>
       </c>
       <c r="G23" t="s">
@@ -2818,7 +2817,7 @@
       <c r="E24" t="s">
         <v>503</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G24" t="s">
@@ -2844,7 +2843,7 @@
       <c r="E25" t="s">
         <v>482</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>534</v>
       </c>
       <c r="G25" t="s">
@@ -2870,7 +2869,7 @@
       <c r="E26" t="s">
         <v>503</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G26" t="s">
@@ -2896,7 +2895,7 @@
       <c r="E27" t="s">
         <v>503</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G27" t="s">
@@ -2922,7 +2921,7 @@
       <c r="E28" t="s">
         <v>503</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G28" t="s">
@@ -2948,7 +2947,7 @@
       <c r="E29" t="s">
         <v>503</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G29" t="s">
@@ -2974,7 +2973,7 @@
       <c r="E30" t="s">
         <v>482</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G30" t="s">
@@ -3000,7 +2999,7 @@
       <c r="E31" t="s">
         <v>482</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G31" t="s">
@@ -3026,7 +3025,7 @@
       <c r="E32" t="s">
         <v>482</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G32" t="s">
@@ -3052,7 +3051,7 @@
       <c r="E33" t="s">
         <v>482</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>539</v>
       </c>
       <c r="G33" t="s">
@@ -3078,7 +3077,7 @@
       <c r="E34" t="s">
         <v>482</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G34" t="s">
@@ -3104,7 +3103,7 @@
       <c r="E35" t="s">
         <v>482</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>539</v>
       </c>
       <c r="G35" t="s">
@@ -3130,7 +3129,7 @@
       <c r="E36" t="s">
         <v>482</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G36" t="s">
@@ -3156,7 +3155,7 @@
       <c r="E37" t="s">
         <v>482</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>540</v>
       </c>
       <c r="G37" t="s">
@@ -3182,7 +3181,7 @@
       <c r="E38" t="s">
         <v>503</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G38" t="s">
@@ -3208,7 +3207,7 @@
       <c r="E39" t="s">
         <v>482</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G39" t="s">
@@ -3234,7 +3233,7 @@
       <c r="E40" t="s">
         <v>503</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G40" t="s">
@@ -3260,7 +3259,7 @@
       <c r="E41" t="s">
         <v>503</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G41" t="s">
@@ -3286,7 +3285,7 @@
       <c r="E42" t="s">
         <v>503</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G42" t="s">
@@ -3312,7 +3311,7 @@
       <c r="E43" t="s">
         <v>482</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G43" t="s">
@@ -3338,7 +3337,7 @@
       <c r="E44" t="s">
         <v>482</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G44" t="s">
@@ -3364,7 +3363,7 @@
       <c r="E45" t="s">
         <v>482</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G45" t="s">
@@ -3390,7 +3389,7 @@
       <c r="E46" t="s">
         <v>503</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G46" t="s">
@@ -3416,7 +3415,7 @@
       <c r="E47" t="s">
         <v>482</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G47" t="s">
@@ -3442,7 +3441,7 @@
       <c r="E48" t="s">
         <v>482</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G48" t="s">
@@ -3468,7 +3467,7 @@
       <c r="E49" t="s">
         <v>503</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G49" t="s">
@@ -3494,7 +3493,7 @@
       <c r="E50" t="s">
         <v>482</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G50" t="s">
@@ -3520,7 +3519,7 @@
       <c r="E51" t="s">
         <v>482</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G51" t="s">
@@ -3546,7 +3545,7 @@
       <c r="E52" t="s">
         <v>482</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="16" t="s">
         <v>537</v>
       </c>
       <c r="G52" t="s">
@@ -3572,7 +3571,7 @@
       <c r="E53" t="s">
         <v>503</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G53" t="s">
@@ -3598,7 +3597,7 @@
       <c r="E54" t="s">
         <v>503</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G54" t="s">
@@ -3624,7 +3623,7 @@
       <c r="E55" t="s">
         <v>482</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G55" t="s">
@@ -3650,7 +3649,7 @@
       <c r="E56" t="s">
         <v>503</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G56" t="s">
@@ -3676,7 +3675,7 @@
       <c r="E57" t="s">
         <v>482</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G57" t="s">
@@ -3702,7 +3701,7 @@
       <c r="E58" t="s">
         <v>482</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G58" t="s">
@@ -3728,7 +3727,7 @@
       <c r="E59" t="s">
         <v>503</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G59" t="s">
@@ -3754,7 +3753,7 @@
       <c r="E60" t="s">
         <v>503</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G60" t="s">
@@ -3780,7 +3779,7 @@
       <c r="E61" t="s">
         <v>503</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G61" t="s">
@@ -3806,7 +3805,7 @@
       <c r="E62" t="s">
         <v>503</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G62" t="s">
@@ -3832,7 +3831,7 @@
       <c r="E63" t="s">
         <v>503</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G63" t="s">
@@ -3858,7 +3857,7 @@
       <c r="E64" t="s">
         <v>503</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G64" t="s">
@@ -3884,7 +3883,7 @@
       <c r="E65" t="s">
         <v>503</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G65" t="s">
@@ -3910,7 +3909,7 @@
       <c r="E66" t="s">
         <v>503</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G66" t="s">
@@ -3936,7 +3935,7 @@
       <c r="E67" t="s">
         <v>482</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G67" t="s">
@@ -3962,7 +3961,7 @@
       <c r="E68" t="s">
         <v>482</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G68" t="s">
@@ -3988,7 +3987,7 @@
       <c r="E69" t="s">
         <v>482</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G69" t="s">
@@ -4040,7 +4039,7 @@
       <c r="E71" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G71" t="s">
@@ -4066,7 +4065,7 @@
       <c r="E72" t="s">
         <v>482</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G72" t="s">
@@ -4092,7 +4091,7 @@
       <c r="E73" t="s">
         <v>503</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G73" t="s">
@@ -4118,7 +4117,7 @@
       <c r="E74" t="s">
         <v>503</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G74" t="s">
@@ -4144,7 +4143,7 @@
       <c r="E75" t="s">
         <v>482</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="16" t="s">
         <v>539</v>
       </c>
       <c r="G75" t="s">
@@ -4170,7 +4169,7 @@
       <c r="E76" t="s">
         <v>503</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G76" t="s">
@@ -4196,7 +4195,7 @@
       <c r="E77" t="s">
         <v>503</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G77" t="s">
@@ -4222,7 +4221,7 @@
       <c r="E78" t="s">
         <v>482</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G78" t="s">
@@ -4248,7 +4247,7 @@
       <c r="E79" t="s">
         <v>482</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G79" t="s">
@@ -4274,7 +4273,7 @@
       <c r="E80" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G80" t="s">
@@ -4300,7 +4299,7 @@
       <c r="E81" t="s">
         <v>503</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G81" t="s">
@@ -4326,7 +4325,7 @@
       <c r="E82" t="s">
         <v>482</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G82" t="s">
@@ -4352,7 +4351,7 @@
       <c r="E83" t="s">
         <v>482</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="16" t="s">
         <v>540</v>
       </c>
       <c r="G83" t="s">
@@ -4378,7 +4377,7 @@
       <c r="E84" t="s">
         <v>482</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G84" t="s">
@@ -4404,7 +4403,7 @@
       <c r="E85" t="s">
         <v>482</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G85" t="s">
@@ -4430,7 +4429,7 @@
       <c r="E86" t="s">
         <v>482</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G86" t="s">
@@ -4456,7 +4455,7 @@
       <c r="E87" t="s">
         <v>503</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G87" t="s">
@@ -4482,7 +4481,7 @@
       <c r="E88" t="s">
         <v>482</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="16" t="s">
         <v>538</v>
       </c>
       <c r="G88" t="s">
@@ -4508,7 +4507,7 @@
       <c r="E89" t="s">
         <v>503</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G89" t="s">
@@ -4534,7 +4533,7 @@
       <c r="E90" t="s">
         <v>503</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G90" t="s">
@@ -4560,7 +4559,7 @@
       <c r="E91" t="s">
         <v>482</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F91" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G91" t="s">
@@ -4586,7 +4585,7 @@
       <c r="E92" t="s">
         <v>482</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G92" t="s">
@@ -4612,7 +4611,7 @@
       <c r="E93" t="s">
         <v>503</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G93" t="s">
@@ -4638,7 +4637,7 @@
       <c r="E94" t="s">
         <v>503</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G94" t="s">
@@ -4664,7 +4663,7 @@
       <c r="E95" t="s">
         <v>482</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G95" t="s">
@@ -4690,7 +4689,7 @@
       <c r="E96" t="s">
         <v>503</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G96" t="s">
@@ -4716,7 +4715,7 @@
       <c r="E97" t="s">
         <v>482</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G97" t="s">
@@ -4742,7 +4741,7 @@
       <c r="E98" t="s">
         <v>482</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G98" t="s">
@@ -4768,7 +4767,7 @@
       <c r="E99" t="s">
         <v>503</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G99" t="s">
@@ -4794,7 +4793,7 @@
       <c r="E100" t="s">
         <v>482</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G100" t="s">
@@ -4820,7 +4819,7 @@
       <c r="E101" t="s">
         <v>482</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G101" t="s">
@@ -4846,7 +4845,7 @@
       <c r="E102" t="s">
         <v>482</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G102" t="s">
@@ -4872,7 +4871,7 @@
       <c r="E103" t="s">
         <v>482</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G103" t="s">
@@ -4898,7 +4897,7 @@
       <c r="E104" t="s">
         <v>503</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G104" t="s">
@@ -4924,7 +4923,7 @@
       <c r="E105" t="s">
         <v>503</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G105" t="s">
@@ -4950,7 +4949,7 @@
       <c r="E106" t="s">
         <v>482</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G106" t="s">
@@ -4976,7 +4975,7 @@
       <c r="E107" t="s">
         <v>482</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G107" t="s">
@@ -5002,7 +5001,7 @@
       <c r="E108" t="s">
         <v>503</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G108" t="s">
@@ -5028,7 +5027,7 @@
       <c r="E109" t="s">
         <v>482</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G109" t="s">
@@ -5054,7 +5053,7 @@
       <c r="E110" t="s">
         <v>503</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G110" t="s">
@@ -5080,7 +5079,7 @@
       <c r="E111" t="s">
         <v>482</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G111" t="s">
@@ -5106,7 +5105,7 @@
       <c r="E112" t="s">
         <v>503</v>
       </c>
-      <c r="F112" s="17" t="s">
+      <c r="F112" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G112" t="s">
@@ -5132,7 +5131,7 @@
       <c r="E113" t="s">
         <v>482</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G113" t="s">
@@ -5158,7 +5157,7 @@
       <c r="E114" t="s">
         <v>482</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F114" s="16" t="s">
         <v>534</v>
       </c>
       <c r="G114" t="s">
@@ -5184,7 +5183,7 @@
       <c r="E115" t="s">
         <v>503</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G115" t="s">
@@ -5210,7 +5209,7 @@
       <c r="E116" t="s">
         <v>482</v>
       </c>
-      <c r="F116" s="17" t="s">
+      <c r="F116" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G116" t="s">
@@ -5236,7 +5235,7 @@
       <c r="E117" t="s">
         <v>503</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G117" t="s">
@@ -5262,7 +5261,7 @@
       <c r="E118" t="s">
         <v>482</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G118" t="s">
@@ -5288,7 +5287,7 @@
       <c r="E119" t="s">
         <v>503</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G119" t="s">
@@ -5314,7 +5313,7 @@
       <c r="E120" t="s">
         <v>503</v>
       </c>
-      <c r="F120" s="17" t="s">
+      <c r="F120" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G120" t="s">
@@ -5340,7 +5339,7 @@
       <c r="E121" t="s">
         <v>482</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F121" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G121" t="s">
@@ -5366,7 +5365,7 @@
       <c r="E122" t="s">
         <v>482</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F122" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G122" t="s">
@@ -5392,7 +5391,7 @@
       <c r="E123" t="s">
         <v>503</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G123" t="s">
@@ -5418,7 +5417,7 @@
       <c r="E124" t="s">
         <v>503</v>
       </c>
-      <c r="F124" s="17" t="s">
+      <c r="F124" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G124" t="s">
@@ -5444,7 +5443,7 @@
       <c r="E125" t="s">
         <v>482</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="16" t="s">
         <v>536</v>
       </c>
       <c r="G125" t="s">
@@ -5470,7 +5469,7 @@
       <c r="E126" t="s">
         <v>482</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F126" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G126" t="s">
@@ -5496,7 +5495,7 @@
       <c r="E127" t="s">
         <v>503</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G127" t="s">
@@ -5522,7 +5521,7 @@
       <c r="E128" t="s">
         <v>482</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G128" t="s">
@@ -5548,7 +5547,7 @@
       <c r="E129" t="s">
         <v>503</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G129" t="s">
@@ -5574,7 +5573,7 @@
       <c r="E130" t="s">
         <v>503</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G130" t="s">
@@ -5600,7 +5599,7 @@
       <c r="E131" t="s">
         <v>503</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G131" t="s">
@@ -5626,7 +5625,7 @@
       <c r="E132" t="s">
         <v>482</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F132" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G132" t="s">
@@ -5652,7 +5651,7 @@
       <c r="E133" t="s">
         <v>503</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F133" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G133" t="s">
@@ -5678,7 +5677,7 @@
       <c r="E134" t="s">
         <v>482</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G134" t="s">
@@ -5704,7 +5703,7 @@
       <c r="E135" t="s">
         <v>503</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G135" t="s">
@@ -5730,7 +5729,7 @@
       <c r="E136" t="s">
         <v>482</v>
       </c>
-      <c r="F136" s="17" t="s">
+      <c r="F136" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G136" t="s">
@@ -5756,7 +5755,7 @@
       <c r="E137" t="s">
         <v>503</v>
       </c>
-      <c r="F137" s="17" t="s">
+      <c r="F137" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G137" t="s">
@@ -5782,7 +5781,7 @@
       <c r="E138" t="s">
         <v>503</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F138" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G138" t="s">
@@ -5808,7 +5807,7 @@
       <c r="E139" t="s">
         <v>482</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G139" t="s">
@@ -5834,7 +5833,7 @@
       <c r="E140" t="s">
         <v>503</v>
       </c>
-      <c r="F140" s="17" t="s">
+      <c r="F140" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G140" t="s">
@@ -5860,7 +5859,7 @@
       <c r="E141" t="s">
         <v>482</v>
       </c>
-      <c r="F141" s="17" t="s">
+      <c r="F141" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G141" t="s">
@@ -5886,7 +5885,7 @@
       <c r="E142" t="s">
         <v>482</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G142" t="s">
@@ -5912,7 +5911,7 @@
       <c r="E143" t="s">
         <v>482</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G143" t="s">
@@ -5938,7 +5937,7 @@
       <c r="E144" t="s">
         <v>482</v>
       </c>
-      <c r="F144" s="17" t="s">
+      <c r="F144" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G144" t="s">
@@ -5964,7 +5963,7 @@
       <c r="E145" t="s">
         <v>482</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F145" s="16" t="s">
         <v>535</v>
       </c>
       <c r="G145" t="s">
@@ -5990,7 +5989,7 @@
       <c r="E146" t="s">
         <v>503</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F146" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G146" t="s">
@@ -6016,7 +6015,7 @@
       <c r="E147" t="s">
         <v>482</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="16" t="s">
         <v>531</v>
       </c>
       <c r="G147" t="s">
@@ -6027,18 +6026,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H147"/>
+  <autoFilter ref="A1:H147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6087,7 +6086,7 @@
       <c r="D2" t="s">
         <v>533</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>1732320</v>
       </c>
       <c r="F2" t="s">
@@ -6540,11 +6539,11 @@
       <c r="C18" t="s">
         <v>484</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="E18" s="11">
-        <v>46508.896309999996</v>
+      <c r="D18" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>327</v>
@@ -6552,8 +6551,8 @@
       <c r="G18" t="s">
         <v>514</v>
       </c>
-      <c r="H18" t="s">
-        <v>515</v>
+      <c r="H18" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1">
@@ -6566,11 +6565,11 @@
       <c r="C19" t="s">
         <v>513</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="E19" s="11">
-        <v>65174.286350000002</v>
+      <c r="D19" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>329</v>
@@ -6578,8 +6577,8 @@
       <c r="G19" t="s">
         <v>514</v>
       </c>
-      <c r="H19" t="s">
-        <v>515</v>
+      <c r="H19" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
@@ -7136,7 +7135,7 @@
       <c r="D38" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>1017.817839</v>
       </c>
       <c r="F38" t="s">
@@ -7677,7 +7676,7 @@
       <c r="D56" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>1761.4671989999999</v>
       </c>
       <c r="F56" t="s">
@@ -8137,20 +8136,20 @@
       <c r="C71" t="s">
         <v>493</v>
       </c>
-      <c r="D71" t="s">
-        <v>528</v>
-      </c>
-      <c r="E71" s="16">
-        <v>40142.316980000003</v>
+      <c r="D71" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>433</v>
       </c>
-      <c r="G71" t="s">
-        <v>514</v>
-      </c>
-      <c r="H71" t="s">
-        <v>517</v>
+      <c r="G71" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -8163,20 +8162,20 @@
       <c r="C72" t="s">
         <v>493</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="E72" s="15">
-        <v>938</v>
+      <c r="D72" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0</v>
       </c>
       <c r="F72" t="s">
         <v>435</v>
       </c>
-      <c r="G72" t="s">
-        <v>514</v>
-      </c>
-      <c r="H72" t="s">
-        <v>515</v>
+      <c r="G72" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -8218,7 +8217,7 @@
       <c r="D74" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="18">
         <v>1256.997198</v>
       </c>
       <c r="F74" t="s">
@@ -8296,7 +8295,7 @@
       <c r="D77" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="18">
         <v>1220.963626</v>
       </c>
       <c r="F77" t="s">
@@ -8510,7 +8509,7 @@
         <v>533</v>
       </c>
       <c r="E84">
-        <v>44000000</v>
+        <v>8625000</v>
       </c>
       <c r="F84" t="s">
         <v>459</v>
@@ -8522,7 +8521,7 @@
         <v>521</v>
       </c>
       <c r="I84">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J84" t="s">
         <v>529</v>
@@ -8567,7 +8566,7 @@
       <c r="D86" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="18">
         <v>1256.997198</v>
       </c>
       <c r="F86" t="s">
@@ -8647,7 +8646,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88"/>
+  <autoFilter ref="A1:I88" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
